--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,264 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B12" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15451</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B13" t="n">
+        <v>269.0499877929688</v>
+      </c>
+      <c r="C13" t="n">
+        <v>279.9500122070312</v>
+      </c>
+      <c r="D13" t="n">
+        <v>269.0499877929688</v>
+      </c>
+      <c r="E13" t="n">
+        <v>279.9500122070312</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17163</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B14" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1939</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B15" t="n">
+        <v>291.2000122070312</v>
+      </c>
+      <c r="C15" t="n">
+        <v>291.2000122070312</v>
+      </c>
+      <c r="D15" t="n">
+        <v>291.2000122070312</v>
+      </c>
+      <c r="E15" t="n">
+        <v>291.2000122070312</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1254</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B16" t="n">
+        <v>297</v>
+      </c>
+      <c r="C16" t="n">
+        <v>297</v>
+      </c>
+      <c r="D16" t="n">
+        <v>297</v>
+      </c>
+      <c r="E16" t="n">
+        <v>297</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3159</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1154,7 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1205,7 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1256,7 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1307,7 +1315,264 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B17" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="C17" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="D17" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="E17" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4443</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B18" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="C18" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="D18" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="E18" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18281</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B19" t="n">
+        <v>302.7999877929688</v>
+      </c>
+      <c r="C19" t="n">
+        <v>302.7999877929688</v>
+      </c>
+      <c r="D19" t="n">
+        <v>302.7999877929688</v>
+      </c>
+      <c r="E19" t="n">
+        <v>302.7999877929688</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18870</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B20" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="C20" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="D20" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2457</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B21" t="n">
+        <v>290.8500061035156</v>
+      </c>
+      <c r="C21" t="n">
+        <v>290.8500061035156</v>
+      </c>
+      <c r="D21" t="n">
+        <v>290.8500061035156</v>
+      </c>
+      <c r="E21" t="n">
+        <v>290.8500061035156</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2536</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1419,7 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1470,7 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1521,7 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1572,7 +1580,264 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B22" t="n">
+        <v>276.3500061035156</v>
+      </c>
+      <c r="C22" t="n">
+        <v>276.3500061035156</v>
+      </c>
+      <c r="D22" t="n">
+        <v>276.3500061035156</v>
+      </c>
+      <c r="E22" t="n">
+        <v>276.3500061035156</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2460</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B23" t="n">
+        <v>262.5499877929688</v>
+      </c>
+      <c r="C23" t="n">
+        <v>262.5499877929688</v>
+      </c>
+      <c r="D23" t="n">
+        <v>262.5499877929688</v>
+      </c>
+      <c r="E23" t="n">
+        <v>262.5499877929688</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3561</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B24" t="n">
+        <v>249.4499969482422</v>
+      </c>
+      <c r="C24" t="n">
+        <v>270</v>
+      </c>
+      <c r="D24" t="n">
+        <v>249.4499969482422</v>
+      </c>
+      <c r="E24" t="n">
+        <v>256.1499938964844</v>
+      </c>
+      <c r="F24" t="n">
+        <v>42947</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B25" t="n">
+        <v>262.1499938964844</v>
+      </c>
+      <c r="C25" t="n">
+        <v>268.9500122070312</v>
+      </c>
+      <c r="D25" t="n">
+        <v>250.0500030517578</v>
+      </c>
+      <c r="E25" t="n">
+        <v>268.8500061035156</v>
+      </c>
+      <c r="F25" t="n">
+        <v>22500</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B26" t="n">
+        <v>278</v>
+      </c>
+      <c r="C26" t="n">
+        <v>280</v>
+      </c>
+      <c r="D26" t="n">
+        <v>270</v>
+      </c>
+      <c r="E26" t="n">
+        <v>276.9500122070312</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13133</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q961"/>
+  <dimension ref="A1:Q966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43914,6 +43914,231 @@
       <c r="P961" t="inlineStr"/>
       <c r="Q961" t="inlineStr"/>
     </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B962" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="C962" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="D962" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="E962" t="n">
+        <v>271.7999877929688</v>
+      </c>
+      <c r="F962" t="n">
+        <v>11243</v>
+      </c>
+      <c r="G962" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H962" t="n">
+        <v>2</v>
+      </c>
+      <c r="I962" t="n">
+        <v>10</v>
+      </c>
+      <c r="J962" t="n">
+        <v>0</v>
+      </c>
+      <c r="K962" t="n">
+        <v>0</v>
+      </c>
+      <c r="L962" t="n">
+        <v>0</v>
+      </c>
+      <c r="M962" t="n">
+        <v>7</v>
+      </c>
+      <c r="N962" t="inlineStr"/>
+      <c r="O962" t="inlineStr"/>
+      <c r="P962" t="inlineStr"/>
+      <c r="Q962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B963" t="n">
+        <v>279.9500122070312</v>
+      </c>
+      <c r="C963" t="n">
+        <v>280</v>
+      </c>
+      <c r="D963" t="n">
+        <v>258.25</v>
+      </c>
+      <c r="E963" t="n">
+        <v>259.8999938964844</v>
+      </c>
+      <c r="F963" t="n">
+        <v>10881</v>
+      </c>
+      <c r="G963" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H963" t="n">
+        <v>2</v>
+      </c>
+      <c r="I963" t="n">
+        <v>11</v>
+      </c>
+      <c r="J963" t="n">
+        <v>0</v>
+      </c>
+      <c r="K963" t="n">
+        <v>0</v>
+      </c>
+      <c r="L963" t="n">
+        <v>0</v>
+      </c>
+      <c r="M963" t="n">
+        <v>7</v>
+      </c>
+      <c r="N963" t="inlineStr"/>
+      <c r="O963" t="inlineStr"/>
+      <c r="P963" t="inlineStr"/>
+      <c r="Q963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B964" t="n">
+        <v>265.1000061035156</v>
+      </c>
+      <c r="C964" t="n">
+        <v>265.1000061035156</v>
+      </c>
+      <c r="D964" t="n">
+        <v>246.9499969482422</v>
+      </c>
+      <c r="E964" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="F964" t="n">
+        <v>16862</v>
+      </c>
+      <c r="G964" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H964" t="n">
+        <v>2</v>
+      </c>
+      <c r="I964" t="n">
+        <v>12</v>
+      </c>
+      <c r="J964" t="n">
+        <v>0</v>
+      </c>
+      <c r="K964" t="n">
+        <v>0</v>
+      </c>
+      <c r="L964" t="n">
+        <v>0</v>
+      </c>
+      <c r="M964" t="n">
+        <v>7</v>
+      </c>
+      <c r="N964" t="inlineStr"/>
+      <c r="O964" t="inlineStr"/>
+      <c r="P964" t="inlineStr"/>
+      <c r="Q964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B965" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="C965" t="n">
+        <v>262</v>
+      </c>
+      <c r="D965" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="E965" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="F965" t="n">
+        <v>4708</v>
+      </c>
+      <c r="G965" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H965" t="n">
+        <v>2</v>
+      </c>
+      <c r="I965" t="n">
+        <v>13</v>
+      </c>
+      <c r="J965" t="n">
+        <v>0</v>
+      </c>
+      <c r="K965" t="n">
+        <v>0</v>
+      </c>
+      <c r="L965" t="n">
+        <v>0</v>
+      </c>
+      <c r="M965" t="n">
+        <v>7</v>
+      </c>
+      <c r="N965" t="inlineStr"/>
+      <c r="O965" t="inlineStr"/>
+      <c r="P965" t="inlineStr"/>
+      <c r="Q965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B966" t="n">
+        <v>253</v>
+      </c>
+      <c r="C966" t="n">
+        <v>253</v>
+      </c>
+      <c r="D966" t="n">
+        <v>238.9499969482422</v>
+      </c>
+      <c r="E966" t="n">
+        <v>238.9499969482422</v>
+      </c>
+      <c r="F966" t="n">
+        <v>9912</v>
+      </c>
+      <c r="G966" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H966" t="n">
+        <v>2</v>
+      </c>
+      <c r="I966" t="n">
+        <v>14</v>
+      </c>
+      <c r="J966" t="n">
+        <v>0</v>
+      </c>
+      <c r="K966" t="n">
+        <v>0</v>
+      </c>
+      <c r="L966" t="n">
+        <v>0</v>
+      </c>
+      <c r="M966" t="n">
+        <v>7</v>
+      </c>
+      <c r="N966" t="inlineStr"/>
+      <c r="O966" t="inlineStr"/>
+      <c r="P966" t="inlineStr"/>
+      <c r="Q966" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q966"/>
+  <dimension ref="A1:Q971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44139,6 +44139,231 @@
       <c r="P966" t="inlineStr"/>
       <c r="Q966" t="inlineStr"/>
     </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B967" t="n">
+        <v>227.0500030517578</v>
+      </c>
+      <c r="C967" t="n">
+        <v>227.0500030517578</v>
+      </c>
+      <c r="D967" t="n">
+        <v>227.0500030517578</v>
+      </c>
+      <c r="E967" t="n">
+        <v>227.0500030517578</v>
+      </c>
+      <c r="F967" t="n">
+        <v>6660</v>
+      </c>
+      <c r="G967" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H967" t="n">
+        <v>2</v>
+      </c>
+      <c r="I967" t="n">
+        <v>17</v>
+      </c>
+      <c r="J967" t="n">
+        <v>0</v>
+      </c>
+      <c r="K967" t="n">
+        <v>0</v>
+      </c>
+      <c r="L967" t="n">
+        <v>0</v>
+      </c>
+      <c r="M967" t="n">
+        <v>8</v>
+      </c>
+      <c r="N967" t="inlineStr"/>
+      <c r="O967" t="inlineStr"/>
+      <c r="P967" t="inlineStr"/>
+      <c r="Q967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B968" t="n">
+        <v>226.8999938964844</v>
+      </c>
+      <c r="C968" t="n">
+        <v>226.8999938964844</v>
+      </c>
+      <c r="D968" t="n">
+        <v>215.6999969482422</v>
+      </c>
+      <c r="E968" t="n">
+        <v>215.6999969482422</v>
+      </c>
+      <c r="F968" t="n">
+        <v>6041</v>
+      </c>
+      <c r="G968" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H968" t="n">
+        <v>2</v>
+      </c>
+      <c r="I968" t="n">
+        <v>18</v>
+      </c>
+      <c r="J968" t="n">
+        <v>0</v>
+      </c>
+      <c r="K968" t="n">
+        <v>0</v>
+      </c>
+      <c r="L968" t="n">
+        <v>0</v>
+      </c>
+      <c r="M968" t="n">
+        <v>8</v>
+      </c>
+      <c r="N968" t="inlineStr"/>
+      <c r="O968" t="inlineStr"/>
+      <c r="P968" t="inlineStr"/>
+      <c r="Q968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B969" t="n">
+        <v>204.9499969482422</v>
+      </c>
+      <c r="C969" t="n">
+        <v>225.9499969482422</v>
+      </c>
+      <c r="D969" t="n">
+        <v>204.9499969482422</v>
+      </c>
+      <c r="E969" t="n">
+        <v>210.6499938964844</v>
+      </c>
+      <c r="F969" t="n">
+        <v>37331</v>
+      </c>
+      <c r="G969" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H969" t="n">
+        <v>2</v>
+      </c>
+      <c r="I969" t="n">
+        <v>19</v>
+      </c>
+      <c r="J969" t="n">
+        <v>0</v>
+      </c>
+      <c r="K969" t="n">
+        <v>0</v>
+      </c>
+      <c r="L969" t="n">
+        <v>0</v>
+      </c>
+      <c r="M969" t="n">
+        <v>8</v>
+      </c>
+      <c r="N969" t="inlineStr"/>
+      <c r="O969" t="inlineStr"/>
+      <c r="P969" t="inlineStr"/>
+      <c r="Q969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B970" t="n">
+        <v>200.1499938964844</v>
+      </c>
+      <c r="C970" t="n">
+        <v>221.1499938964844</v>
+      </c>
+      <c r="D970" t="n">
+        <v>200.1499938964844</v>
+      </c>
+      <c r="E970" t="n">
+        <v>221.1499938964844</v>
+      </c>
+      <c r="F970" t="n">
+        <v>37286</v>
+      </c>
+      <c r="G970" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H970" t="n">
+        <v>2</v>
+      </c>
+      <c r="I970" t="n">
+        <v>20</v>
+      </c>
+      <c r="J970" t="n">
+        <v>0</v>
+      </c>
+      <c r="K970" t="n">
+        <v>0</v>
+      </c>
+      <c r="L970" t="n">
+        <v>0</v>
+      </c>
+      <c r="M970" t="n">
+        <v>8</v>
+      </c>
+      <c r="N970" t="inlineStr"/>
+      <c r="O970" t="inlineStr"/>
+      <c r="P970" t="inlineStr"/>
+      <c r="Q970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B971" t="n">
+        <v>215</v>
+      </c>
+      <c r="C971" t="n">
+        <v>232.1999969482422</v>
+      </c>
+      <c r="D971" t="n">
+        <v>210.1000061035156</v>
+      </c>
+      <c r="E971" t="n">
+        <v>232.1999969482422</v>
+      </c>
+      <c r="F971" t="n">
+        <v>14403</v>
+      </c>
+      <c r="G971" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H971" t="n">
+        <v>2</v>
+      </c>
+      <c r="I971" t="n">
+        <v>21</v>
+      </c>
+      <c r="J971" t="n">
+        <v>0</v>
+      </c>
+      <c r="K971" t="n">
+        <v>0</v>
+      </c>
+      <c r="L971" t="n">
+        <v>0</v>
+      </c>
+      <c r="M971" t="n">
+        <v>8</v>
+      </c>
+      <c r="N971" t="inlineStr"/>
+      <c r="O971" t="inlineStr"/>
+      <c r="P971" t="inlineStr"/>
+      <c r="Q971" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q971"/>
+  <dimension ref="A1:Q980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44364,6 +44364,411 @@
       <c r="P971" t="inlineStr"/>
       <c r="Q971" t="inlineStr"/>
     </row>
+    <row r="972">
+      <c r="A972" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B972" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="C972" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="D972" t="n">
+        <v>230</v>
+      </c>
+      <c r="E972" t="n">
+        <v>239.8500061035156</v>
+      </c>
+      <c r="F972" t="n">
+        <v>32042</v>
+      </c>
+      <c r="G972" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H972" t="n">
+        <v>2</v>
+      </c>
+      <c r="I972" t="n">
+        <v>24</v>
+      </c>
+      <c r="J972" t="n">
+        <v>0</v>
+      </c>
+      <c r="K972" t="n">
+        <v>0</v>
+      </c>
+      <c r="L972" t="n">
+        <v>0</v>
+      </c>
+      <c r="M972" t="n">
+        <v>9</v>
+      </c>
+      <c r="N972" t="inlineStr"/>
+      <c r="O972" t="inlineStr"/>
+      <c r="P972" t="inlineStr"/>
+      <c r="Q972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B973" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="C973" t="n">
+        <v>251.8000030517578</v>
+      </c>
+      <c r="D973" t="n">
+        <v>240</v>
+      </c>
+      <c r="E973" t="n">
+        <v>251.8000030517578</v>
+      </c>
+      <c r="F973" t="n">
+        <v>19372</v>
+      </c>
+      <c r="G973" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H973" t="n">
+        <v>2</v>
+      </c>
+      <c r="I973" t="n">
+        <v>25</v>
+      </c>
+      <c r="J973" t="n">
+        <v>0</v>
+      </c>
+      <c r="K973" t="n">
+        <v>0</v>
+      </c>
+      <c r="L973" t="n">
+        <v>0</v>
+      </c>
+      <c r="M973" t="n">
+        <v>9</v>
+      </c>
+      <c r="N973" t="inlineStr"/>
+      <c r="O973" t="inlineStr"/>
+      <c r="P973" t="inlineStr"/>
+      <c r="Q973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B974" t="n">
+        <v>264.3500061035156</v>
+      </c>
+      <c r="C974" t="n">
+        <v>264.3500061035156</v>
+      </c>
+      <c r="D974" t="n">
+        <v>241.6000061035156</v>
+      </c>
+      <c r="E974" t="n">
+        <v>252.6499938964844</v>
+      </c>
+      <c r="F974" t="n">
+        <v>32613</v>
+      </c>
+      <c r="G974" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H974" t="n">
+        <v>2</v>
+      </c>
+      <c r="I974" t="n">
+        <v>27</v>
+      </c>
+      <c r="J974" t="n">
+        <v>0</v>
+      </c>
+      <c r="K974" t="n">
+        <v>0</v>
+      </c>
+      <c r="L974" t="n">
+        <v>0</v>
+      </c>
+      <c r="M974" t="n">
+        <v>9</v>
+      </c>
+      <c r="N974" t="inlineStr"/>
+      <c r="O974" t="inlineStr"/>
+      <c r="P974" t="inlineStr"/>
+      <c r="Q974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B975" t="n">
+        <v>247.6000061035156</v>
+      </c>
+      <c r="C975" t="n">
+        <v>247.6000061035156</v>
+      </c>
+      <c r="D975" t="n">
+        <v>247.6000061035156</v>
+      </c>
+      <c r="E975" t="n">
+        <v>247.6000061035156</v>
+      </c>
+      <c r="F975" t="n">
+        <v>9063</v>
+      </c>
+      <c r="G975" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H975" t="n">
+        <v>2</v>
+      </c>
+      <c r="I975" t="n">
+        <v>28</v>
+      </c>
+      <c r="J975" t="n">
+        <v>0</v>
+      </c>
+      <c r="K975" t="n">
+        <v>0</v>
+      </c>
+      <c r="L975" t="n">
+        <v>0</v>
+      </c>
+      <c r="M975" t="n">
+        <v>9</v>
+      </c>
+      <c r="N975" t="inlineStr"/>
+      <c r="O975" t="inlineStr"/>
+      <c r="P975" t="inlineStr"/>
+      <c r="Q975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B976" t="n">
+        <v>242.6499938964844</v>
+      </c>
+      <c r="C976" t="n">
+        <v>242.6499938964844</v>
+      </c>
+      <c r="D976" t="n">
+        <v>242.6499938964844</v>
+      </c>
+      <c r="E976" t="n">
+        <v>242.6499938964844</v>
+      </c>
+      <c r="F976" t="n">
+        <v>3202</v>
+      </c>
+      <c r="G976" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H976" t="n">
+        <v>3</v>
+      </c>
+      <c r="I976" t="n">
+        <v>3</v>
+      </c>
+      <c r="J976" t="n">
+        <v>0</v>
+      </c>
+      <c r="K976" t="n">
+        <v>0</v>
+      </c>
+      <c r="L976" t="n">
+        <v>0</v>
+      </c>
+      <c r="M976" t="n">
+        <v>10</v>
+      </c>
+      <c r="N976" t="inlineStr"/>
+      <c r="O976" t="inlineStr"/>
+      <c r="P976" t="inlineStr"/>
+      <c r="Q976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B977" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="C977" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="D977" t="n">
+        <v>237.8000030517578</v>
+      </c>
+      <c r="E977" t="n">
+        <v>237.8000030517578</v>
+      </c>
+      <c r="F977" t="n">
+        <v>5987</v>
+      </c>
+      <c r="G977" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H977" t="n">
+        <v>3</v>
+      </c>
+      <c r="I977" t="n">
+        <v>4</v>
+      </c>
+      <c r="J977" t="n">
+        <v>0</v>
+      </c>
+      <c r="K977" t="n">
+        <v>0</v>
+      </c>
+      <c r="L977" t="n">
+        <v>0</v>
+      </c>
+      <c r="M977" t="n">
+        <v>10</v>
+      </c>
+      <c r="N977" t="inlineStr"/>
+      <c r="O977" t="inlineStr"/>
+      <c r="P977" t="inlineStr"/>
+      <c r="Q977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B978" t="n">
+        <v>237.8000030517578</v>
+      </c>
+      <c r="C978" t="n">
+        <v>242.5500030517578</v>
+      </c>
+      <c r="D978" t="n">
+        <v>237.8000030517578</v>
+      </c>
+      <c r="E978" t="n">
+        <v>242.5500030517578</v>
+      </c>
+      <c r="F978" t="n">
+        <v>18898</v>
+      </c>
+      <c r="G978" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H978" t="n">
+        <v>3</v>
+      </c>
+      <c r="I978" t="n">
+        <v>5</v>
+      </c>
+      <c r="J978" t="n">
+        <v>0</v>
+      </c>
+      <c r="K978" t="n">
+        <v>0</v>
+      </c>
+      <c r="L978" t="n">
+        <v>0</v>
+      </c>
+      <c r="M978" t="n">
+        <v>10</v>
+      </c>
+      <c r="N978" t="inlineStr"/>
+      <c r="O978" t="inlineStr"/>
+      <c r="P978" t="inlineStr"/>
+      <c r="Q978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B979" t="n">
+        <v>247.3999938964844</v>
+      </c>
+      <c r="C979" t="n">
+        <v>247.3999938964844</v>
+      </c>
+      <c r="D979" t="n">
+        <v>247.3999938964844</v>
+      </c>
+      <c r="E979" t="n">
+        <v>247.3999938964844</v>
+      </c>
+      <c r="F979" t="n">
+        <v>8767</v>
+      </c>
+      <c r="G979" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H979" t="n">
+        <v>3</v>
+      </c>
+      <c r="I979" t="n">
+        <v>6</v>
+      </c>
+      <c r="J979" t="n">
+        <v>0</v>
+      </c>
+      <c r="K979" t="n">
+        <v>0</v>
+      </c>
+      <c r="L979" t="n">
+        <v>0</v>
+      </c>
+      <c r="M979" t="n">
+        <v>10</v>
+      </c>
+      <c r="N979" t="inlineStr"/>
+      <c r="O979" t="inlineStr"/>
+      <c r="P979" t="inlineStr"/>
+      <c r="Q979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B980" t="n">
+        <v>251.9499969482422</v>
+      </c>
+      <c r="C980" t="n">
+        <v>251.9499969482422</v>
+      </c>
+      <c r="D980" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="E980" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="F980" t="n">
+        <v>10023</v>
+      </c>
+      <c r="G980" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H980" t="n">
+        <v>3</v>
+      </c>
+      <c r="I980" t="n">
+        <v>7</v>
+      </c>
+      <c r="J980" t="n">
+        <v>0</v>
+      </c>
+      <c r="K980" t="n">
+        <v>0</v>
+      </c>
+      <c r="L980" t="n">
+        <v>0</v>
+      </c>
+      <c r="M980" t="n">
+        <v>10</v>
+      </c>
+      <c r="N980" t="inlineStr"/>
+      <c r="O980" t="inlineStr"/>
+      <c r="P980" t="inlineStr"/>
+      <c r="Q980" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q980"/>
+  <dimension ref="A1:Q989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44769,6 +44769,411 @@
       <c r="P980" t="inlineStr"/>
       <c r="Q980" t="inlineStr"/>
     </row>
+    <row r="981">
+      <c r="A981" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B981" t="n">
+        <v>237.6499938964844</v>
+      </c>
+      <c r="C981" t="n">
+        <v>237.6499938964844</v>
+      </c>
+      <c r="D981" t="n">
+        <v>237.6499938964844</v>
+      </c>
+      <c r="E981" t="n">
+        <v>237.6499938964844</v>
+      </c>
+      <c r="F981" t="n">
+        <v>25230</v>
+      </c>
+      <c r="G981" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H981" t="n">
+        <v>3</v>
+      </c>
+      <c r="I981" t="n">
+        <v>10</v>
+      </c>
+      <c r="J981" t="n">
+        <v>0</v>
+      </c>
+      <c r="K981" t="n">
+        <v>0</v>
+      </c>
+      <c r="L981" t="n">
+        <v>0</v>
+      </c>
+      <c r="M981" t="n">
+        <v>11</v>
+      </c>
+      <c r="N981" t="inlineStr"/>
+      <c r="O981" t="inlineStr"/>
+      <c r="P981" t="inlineStr"/>
+      <c r="Q981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B982" t="n">
+        <v>232.8999938964844</v>
+      </c>
+      <c r="C982" t="n">
+        <v>232.8999938964844</v>
+      </c>
+      <c r="D982" t="n">
+        <v>232.8999938964844</v>
+      </c>
+      <c r="E982" t="n">
+        <v>232.8999938964844</v>
+      </c>
+      <c r="F982" t="n">
+        <v>1781</v>
+      </c>
+      <c r="G982" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H982" t="n">
+        <v>3</v>
+      </c>
+      <c r="I982" t="n">
+        <v>11</v>
+      </c>
+      <c r="J982" t="n">
+        <v>0</v>
+      </c>
+      <c r="K982" t="n">
+        <v>0</v>
+      </c>
+      <c r="L982" t="n">
+        <v>0</v>
+      </c>
+      <c r="M982" t="n">
+        <v>11</v>
+      </c>
+      <c r="N982" t="inlineStr"/>
+      <c r="O982" t="inlineStr"/>
+      <c r="P982" t="inlineStr"/>
+      <c r="Q982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B983" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="C983" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="D983" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="E983" t="n">
+        <v>228.25</v>
+      </c>
+      <c r="F983" t="n">
+        <v>1884</v>
+      </c>
+      <c r="G983" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H983" t="n">
+        <v>3</v>
+      </c>
+      <c r="I983" t="n">
+        <v>12</v>
+      </c>
+      <c r="J983" t="n">
+        <v>0</v>
+      </c>
+      <c r="K983" t="n">
+        <v>0</v>
+      </c>
+      <c r="L983" t="n">
+        <v>0</v>
+      </c>
+      <c r="M983" t="n">
+        <v>11</v>
+      </c>
+      <c r="N983" t="inlineStr"/>
+      <c r="O983" t="inlineStr"/>
+      <c r="P983" t="inlineStr"/>
+      <c r="Q983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B984" t="n">
+        <v>223.6999969482422</v>
+      </c>
+      <c r="C984" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="D984" t="n">
+        <v>223.6999969482422</v>
+      </c>
+      <c r="E984" t="n">
+        <v>223.6999969482422</v>
+      </c>
+      <c r="F984" t="n">
+        <v>100684</v>
+      </c>
+      <c r="G984" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H984" t="n">
+        <v>3</v>
+      </c>
+      <c r="I984" t="n">
+        <v>13</v>
+      </c>
+      <c r="J984" t="n">
+        <v>0</v>
+      </c>
+      <c r="K984" t="n">
+        <v>0</v>
+      </c>
+      <c r="L984" t="n">
+        <v>0</v>
+      </c>
+      <c r="M984" t="n">
+        <v>11</v>
+      </c>
+      <c r="N984" t="inlineStr"/>
+      <c r="O984" t="inlineStr"/>
+      <c r="P984" t="inlineStr"/>
+      <c r="Q984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B985" t="n">
+        <v>219.25</v>
+      </c>
+      <c r="C985" t="n">
+        <v>219.25</v>
+      </c>
+      <c r="D985" t="n">
+        <v>219.25</v>
+      </c>
+      <c r="E985" t="n">
+        <v>219.25</v>
+      </c>
+      <c r="F985" t="n">
+        <v>825</v>
+      </c>
+      <c r="G985" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H985" t="n">
+        <v>3</v>
+      </c>
+      <c r="I985" t="n">
+        <v>17</v>
+      </c>
+      <c r="J985" t="n">
+        <v>0</v>
+      </c>
+      <c r="K985" t="n">
+        <v>0</v>
+      </c>
+      <c r="L985" t="n">
+        <v>0</v>
+      </c>
+      <c r="M985" t="n">
+        <v>12</v>
+      </c>
+      <c r="N985" t="inlineStr"/>
+      <c r="O985" t="inlineStr"/>
+      <c r="P985" t="inlineStr"/>
+      <c r="Q985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B986" t="n">
+        <v>214.8999938964844</v>
+      </c>
+      <c r="C986" t="n">
+        <v>214.8999938964844</v>
+      </c>
+      <c r="D986" t="n">
+        <v>214.8999938964844</v>
+      </c>
+      <c r="E986" t="n">
+        <v>214.8999938964844</v>
+      </c>
+      <c r="F986" t="n">
+        <v>3169</v>
+      </c>
+      <c r="G986" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H986" t="n">
+        <v>3</v>
+      </c>
+      <c r="I986" t="n">
+        <v>18</v>
+      </c>
+      <c r="J986" t="n">
+        <v>0</v>
+      </c>
+      <c r="K986" t="n">
+        <v>0</v>
+      </c>
+      <c r="L986" t="n">
+        <v>0</v>
+      </c>
+      <c r="M986" t="n">
+        <v>12</v>
+      </c>
+      <c r="N986" t="inlineStr"/>
+      <c r="O986" t="inlineStr"/>
+      <c r="P986" t="inlineStr"/>
+      <c r="Q986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B987" t="n">
+        <v>210.6499938964844</v>
+      </c>
+      <c r="C987" t="n">
+        <v>210.6499938964844</v>
+      </c>
+      <c r="D987" t="n">
+        <v>210.6499938964844</v>
+      </c>
+      <c r="E987" t="n">
+        <v>210.6499938964844</v>
+      </c>
+      <c r="F987" t="n">
+        <v>4547</v>
+      </c>
+      <c r="G987" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H987" t="n">
+        <v>3</v>
+      </c>
+      <c r="I987" t="n">
+        <v>19</v>
+      </c>
+      <c r="J987" t="n">
+        <v>0</v>
+      </c>
+      <c r="K987" t="n">
+        <v>0</v>
+      </c>
+      <c r="L987" t="n">
+        <v>0</v>
+      </c>
+      <c r="M987" t="n">
+        <v>12</v>
+      </c>
+      <c r="N987" t="inlineStr"/>
+      <c r="O987" t="inlineStr"/>
+      <c r="P987" t="inlineStr"/>
+      <c r="Q987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B988" t="n">
+        <v>206.4499969482422</v>
+      </c>
+      <c r="C988" t="n">
+        <v>206.4499969482422</v>
+      </c>
+      <c r="D988" t="n">
+        <v>206.4499969482422</v>
+      </c>
+      <c r="E988" t="n">
+        <v>206.4499969482422</v>
+      </c>
+      <c r="F988" t="n">
+        <v>4016</v>
+      </c>
+      <c r="G988" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H988" t="n">
+        <v>3</v>
+      </c>
+      <c r="I988" t="n">
+        <v>20</v>
+      </c>
+      <c r="J988" t="n">
+        <v>0</v>
+      </c>
+      <c r="K988" t="n">
+        <v>0</v>
+      </c>
+      <c r="L988" t="n">
+        <v>0</v>
+      </c>
+      <c r="M988" t="n">
+        <v>12</v>
+      </c>
+      <c r="N988" t="inlineStr"/>
+      <c r="O988" t="inlineStr"/>
+      <c r="P988" t="inlineStr"/>
+      <c r="Q988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B989" t="n">
+        <v>202.3500061035156</v>
+      </c>
+      <c r="C989" t="n">
+        <v>202.3500061035156</v>
+      </c>
+      <c r="D989" t="n">
+        <v>202.3500061035156</v>
+      </c>
+      <c r="E989" t="n">
+        <v>202.3500061035156</v>
+      </c>
+      <c r="F989" t="n">
+        <v>8073</v>
+      </c>
+      <c r="G989" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H989" t="n">
+        <v>3</v>
+      </c>
+      <c r="I989" t="n">
+        <v>21</v>
+      </c>
+      <c r="J989" t="n">
+        <v>0</v>
+      </c>
+      <c r="K989" t="n">
+        <v>0</v>
+      </c>
+      <c r="L989" t="n">
+        <v>0</v>
+      </c>
+      <c r="M989" t="n">
+        <v>12</v>
+      </c>
+      <c r="N989" t="inlineStr"/>
+      <c r="O989" t="inlineStr"/>
+      <c r="P989" t="inlineStr"/>
+      <c r="Q989" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q989"/>
+  <dimension ref="A1:Q998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45174,6 +45174,411 @@
       <c r="P989" t="inlineStr"/>
       <c r="Q989" t="inlineStr"/>
     </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B990" t="n">
+        <v>198.3500061035156</v>
+      </c>
+      <c r="C990" t="n">
+        <v>198.3500061035156</v>
+      </c>
+      <c r="D990" t="n">
+        <v>198.3500061035156</v>
+      </c>
+      <c r="E990" t="n">
+        <v>198.3500061035156</v>
+      </c>
+      <c r="F990" t="n">
+        <v>13768</v>
+      </c>
+      <c r="G990" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H990" t="n">
+        <v>3</v>
+      </c>
+      <c r="I990" t="n">
+        <v>24</v>
+      </c>
+      <c r="J990" t="n">
+        <v>0</v>
+      </c>
+      <c r="K990" t="n">
+        <v>0</v>
+      </c>
+      <c r="L990" t="n">
+        <v>0</v>
+      </c>
+      <c r="M990" t="n">
+        <v>13</v>
+      </c>
+      <c r="N990" t="inlineStr"/>
+      <c r="O990" t="inlineStr"/>
+      <c r="P990" t="inlineStr"/>
+      <c r="Q990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B991" t="n">
+        <v>194.3999938964844</v>
+      </c>
+      <c r="C991" t="n">
+        <v>195.3999938964844</v>
+      </c>
+      <c r="D991" t="n">
+        <v>194.3999938964844</v>
+      </c>
+      <c r="E991" t="n">
+        <v>195.3999938964844</v>
+      </c>
+      <c r="F991" t="n">
+        <v>50945</v>
+      </c>
+      <c r="G991" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H991" t="n">
+        <v>3</v>
+      </c>
+      <c r="I991" t="n">
+        <v>25</v>
+      </c>
+      <c r="J991" t="n">
+        <v>0</v>
+      </c>
+      <c r="K991" t="n">
+        <v>0</v>
+      </c>
+      <c r="L991" t="n">
+        <v>0</v>
+      </c>
+      <c r="M991" t="n">
+        <v>13</v>
+      </c>
+      <c r="N991" t="inlineStr"/>
+      <c r="O991" t="inlineStr"/>
+      <c r="P991" t="inlineStr"/>
+      <c r="Q991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B992" t="n">
+        <v>199.3000030517578</v>
+      </c>
+      <c r="C992" t="n">
+        <v>199.3000030517578</v>
+      </c>
+      <c r="D992" t="n">
+        <v>199.3000030517578</v>
+      </c>
+      <c r="E992" t="n">
+        <v>199.3000030517578</v>
+      </c>
+      <c r="F992" t="n">
+        <v>20746</v>
+      </c>
+      <c r="G992" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H992" t="n">
+        <v>3</v>
+      </c>
+      <c r="I992" t="n">
+        <v>26</v>
+      </c>
+      <c r="J992" t="n">
+        <v>0</v>
+      </c>
+      <c r="K992" t="n">
+        <v>0</v>
+      </c>
+      <c r="L992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M992" t="n">
+        <v>13</v>
+      </c>
+      <c r="N992" t="inlineStr"/>
+      <c r="O992" t="inlineStr"/>
+      <c r="P992" t="inlineStr"/>
+      <c r="Q992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B993" t="n">
+        <v>197</v>
+      </c>
+      <c r="C993" t="n">
+        <v>197</v>
+      </c>
+      <c r="D993" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="E993" t="n">
+        <v>195.3500061035156</v>
+      </c>
+      <c r="F993" t="n">
+        <v>29878</v>
+      </c>
+      <c r="G993" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H993" t="n">
+        <v>3</v>
+      </c>
+      <c r="I993" t="n">
+        <v>27</v>
+      </c>
+      <c r="J993" t="n">
+        <v>0</v>
+      </c>
+      <c r="K993" t="n">
+        <v>0</v>
+      </c>
+      <c r="L993" t="n">
+        <v>0</v>
+      </c>
+      <c r="M993" t="n">
+        <v>13</v>
+      </c>
+      <c r="N993" t="inlineStr"/>
+      <c r="O993" t="inlineStr"/>
+      <c r="P993" t="inlineStr"/>
+      <c r="Q993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B994" t="n">
+        <v>195</v>
+      </c>
+      <c r="C994" t="n">
+        <v>195</v>
+      </c>
+      <c r="D994" t="n">
+        <v>191.4499969482422</v>
+      </c>
+      <c r="E994" t="n">
+        <v>191.4499969482422</v>
+      </c>
+      <c r="F994" t="n">
+        <v>16159</v>
+      </c>
+      <c r="G994" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H994" t="n">
+        <v>3</v>
+      </c>
+      <c r="I994" t="n">
+        <v>28</v>
+      </c>
+      <c r="J994" t="n">
+        <v>0</v>
+      </c>
+      <c r="K994" t="n">
+        <v>0</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M994" t="n">
+        <v>13</v>
+      </c>
+      <c r="N994" t="inlineStr"/>
+      <c r="O994" t="inlineStr"/>
+      <c r="P994" t="inlineStr"/>
+      <c r="Q994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B995" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="C995" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="D995" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="E995" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="F995" t="n">
+        <v>6765</v>
+      </c>
+      <c r="G995" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H995" t="n">
+        <v>4</v>
+      </c>
+      <c r="I995" t="n">
+        <v>1</v>
+      </c>
+      <c r="J995" t="n">
+        <v>0</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>14</v>
+      </c>
+      <c r="N995" t="inlineStr"/>
+      <c r="O995" t="inlineStr"/>
+      <c r="P995" t="inlineStr"/>
+      <c r="Q995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B996" t="n">
+        <v>199.1499938964844</v>
+      </c>
+      <c r="C996" t="n">
+        <v>199.1499938964844</v>
+      </c>
+      <c r="D996" t="n">
+        <v>199.1499938964844</v>
+      </c>
+      <c r="E996" t="n">
+        <v>199.1499938964844</v>
+      </c>
+      <c r="F996" t="n">
+        <v>3859</v>
+      </c>
+      <c r="G996" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H996" t="n">
+        <v>4</v>
+      </c>
+      <c r="I996" t="n">
+        <v>2</v>
+      </c>
+      <c r="J996" t="n">
+        <v>0</v>
+      </c>
+      <c r="K996" t="n">
+        <v>0</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>14</v>
+      </c>
+      <c r="N996" t="inlineStr"/>
+      <c r="O996" t="inlineStr"/>
+      <c r="P996" t="inlineStr"/>
+      <c r="Q996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B997" t="n">
+        <v>203.1000061035156</v>
+      </c>
+      <c r="C997" t="n">
+        <v>203.1000061035156</v>
+      </c>
+      <c r="D997" t="n">
+        <v>203.1000061035156</v>
+      </c>
+      <c r="E997" t="n">
+        <v>203.1000061035156</v>
+      </c>
+      <c r="F997" t="n">
+        <v>1522</v>
+      </c>
+      <c r="G997" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H997" t="n">
+        <v>4</v>
+      </c>
+      <c r="I997" t="n">
+        <v>3</v>
+      </c>
+      <c r="J997" t="n">
+        <v>0</v>
+      </c>
+      <c r="K997" t="n">
+        <v>0</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>14</v>
+      </c>
+      <c r="N997" t="inlineStr"/>
+      <c r="O997" t="inlineStr"/>
+      <c r="P997" t="inlineStr"/>
+      <c r="Q997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B998" t="n">
+        <v>207.1499938964844</v>
+      </c>
+      <c r="C998" t="n">
+        <v>207.1499938964844</v>
+      </c>
+      <c r="D998" t="n">
+        <v>207.1499938964844</v>
+      </c>
+      <c r="E998" t="n">
+        <v>207.1499938964844</v>
+      </c>
+      <c r="F998" t="n">
+        <v>5281</v>
+      </c>
+      <c r="G998" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H998" t="n">
+        <v>4</v>
+      </c>
+      <c r="I998" t="n">
+        <v>4</v>
+      </c>
+      <c r="J998" t="n">
+        <v>0</v>
+      </c>
+      <c r="K998" t="n">
+        <v>0</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>14</v>
+      </c>
+      <c r="N998" t="inlineStr"/>
+      <c r="O998" t="inlineStr"/>
+      <c r="P998" t="inlineStr"/>
+      <c r="Q998" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q998"/>
+  <dimension ref="A1:Q1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45579,6 +45579,186 @@
       <c r="P998" t="inlineStr"/>
       <c r="Q998" t="inlineStr"/>
     </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B999" t="n">
+        <v>196.8000030517578</v>
+      </c>
+      <c r="C999" t="n">
+        <v>206.9499969482422</v>
+      </c>
+      <c r="D999" t="n">
+        <v>196.8000030517578</v>
+      </c>
+      <c r="E999" t="n">
+        <v>197.3999938964844</v>
+      </c>
+      <c r="F999" t="n">
+        <v>19271</v>
+      </c>
+      <c r="G999" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H999" t="n">
+        <v>4</v>
+      </c>
+      <c r="I999" t="n">
+        <v>7</v>
+      </c>
+      <c r="J999" t="n">
+        <v>0</v>
+      </c>
+      <c r="K999" t="n">
+        <v>0</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>15</v>
+      </c>
+      <c r="N999" t="inlineStr"/>
+      <c r="O999" t="inlineStr"/>
+      <c r="P999" t="inlineStr"/>
+      <c r="Q999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>204.9499969482422</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>206</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>187.5500030517578</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>195.3000030517578</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>20440</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1000" t="inlineStr"/>
+      <c r="O1000" t="inlineStr"/>
+      <c r="P1000" t="inlineStr"/>
+      <c r="Q1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>185.5500030517578</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>189.1999969482422</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>7039</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1001" t="inlineStr"/>
+      <c r="O1001" t="inlineStr"/>
+      <c r="P1001" t="inlineStr"/>
+      <c r="Q1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>189.3000030517578</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>198.6499938964844</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>189</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>198.6499938964844</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>5085</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1002" t="inlineStr"/>
+      <c r="O1002" t="inlineStr"/>
+      <c r="P1002" t="inlineStr"/>
+      <c r="Q1002" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1002"/>
+  <dimension ref="A1:Q1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45759,6 +45759,141 @@
       <c r="P1002" t="inlineStr"/>
       <c r="Q1002" t="inlineStr"/>
     </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>208.5500030517578</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>208.5500030517578</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>203.6499938964844</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>208.5500030517578</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>6680</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1003" t="inlineStr"/>
+      <c r="O1003" t="inlineStr"/>
+      <c r="P1003" t="inlineStr"/>
+      <c r="Q1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>218.9499969482422</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>218.9499969482422</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>218.9499969482422</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>218.9499969482422</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>9188</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1004" t="inlineStr"/>
+      <c r="O1004" t="inlineStr"/>
+      <c r="P1004" t="inlineStr"/>
+      <c r="Q1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>229.8500061035156</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>229.8500061035156</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>218.9499969482422</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>229.8500061035156</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>14215</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1005" t="inlineStr"/>
+      <c r="O1005" t="inlineStr"/>
+      <c r="P1005" t="inlineStr"/>
+      <c r="Q1005" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1005"/>
+  <dimension ref="A1:Q1014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45894,6 +45894,411 @@
       <c r="P1005" t="inlineStr"/>
       <c r="Q1005" t="inlineStr"/>
     </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>245.1000061035156</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>275.7999877929688</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>245.1000061035156</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>275.7999877929688</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>16294</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1006" t="inlineStr"/>
+      <c r="O1006" t="inlineStr"/>
+      <c r="P1006" t="inlineStr"/>
+      <c r="Q1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>310</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>330.9500122070312</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>276</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>330.9500122070312</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>121078</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1007" t="inlineStr"/>
+      <c r="O1007" t="inlineStr"/>
+      <c r="P1007" t="inlineStr"/>
+      <c r="Q1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>364</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>364</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>351</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>163317</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1008" t="inlineStr"/>
+      <c r="O1008" t="inlineStr"/>
+      <c r="P1008" t="inlineStr"/>
+      <c r="Q1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>344</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>326.2999877929688</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>326.2999877929688</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>107864</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1009" t="inlineStr"/>
+      <c r="O1009" t="inlineStr"/>
+      <c r="P1009" t="inlineStr"/>
+      <c r="Q1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>313</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>317.8999938964844</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>293.7000122070312</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>293.7000122070312</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>73141</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1010" t="inlineStr"/>
+      <c r="O1010" t="inlineStr"/>
+      <c r="P1010" t="inlineStr"/>
+      <c r="Q1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>281</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>323.0499877929688</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>310.3999938964844</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>58418</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1011" t="inlineStr"/>
+      <c r="O1011" t="inlineStr"/>
+      <c r="P1011" t="inlineStr"/>
+      <c r="Q1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>310.6499938964844</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>324.9500122070312</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>299</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>305.1000061035156</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>23362</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1012" t="inlineStr"/>
+      <c r="O1012" t="inlineStr"/>
+      <c r="P1012" t="inlineStr"/>
+      <c r="Q1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>309.9500122070312</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>309.9500122070312</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>276.6000061035156</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>282.1000061035156</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>19174</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1013" t="inlineStr"/>
+      <c r="O1013" t="inlineStr"/>
+      <c r="P1013" t="inlineStr"/>
+      <c r="Q1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>282.1000061035156</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>287.7000122070312</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>274</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>276.1499938964844</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>12597</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1014" t="inlineStr"/>
+      <c r="O1014" t="inlineStr"/>
+      <c r="P1014" t="inlineStr"/>
+      <c r="Q1014" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/TRL.BO.xlsx
+++ b/stock_historical_data/1d/TRL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1014"/>
+  <dimension ref="A1:Q1024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46299,6 +46299,456 @@
       <c r="P1014" t="inlineStr"/>
       <c r="Q1014" t="inlineStr"/>
     </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>263.3500061035156</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>11688</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1015" t="inlineStr"/>
+      <c r="O1015" t="inlineStr"/>
+      <c r="P1015" t="inlineStr"/>
+      <c r="Q1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>304</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>304.3999938964844</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>278.2999877929688</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>293.3500061035156</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>16815</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1016" t="inlineStr"/>
+      <c r="O1016" t="inlineStr"/>
+      <c r="P1016" t="inlineStr"/>
+      <c r="Q1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>280</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>292</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>278.7000122070312</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>280.2999877929688</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>8640</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1017" t="inlineStr"/>
+      <c r="O1017" t="inlineStr"/>
+      <c r="P1017" t="inlineStr"/>
+      <c r="Q1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>290</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>278.75</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>6204</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1018" t="inlineStr"/>
+      <c r="O1018" t="inlineStr"/>
+      <c r="P1018" t="inlineStr"/>
+      <c r="Q1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>264.8500061035156</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>288</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>264.8500061035156</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>284.1499938964844</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>8899</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1019" t="inlineStr"/>
+      <c r="O1019" t="inlineStr"/>
+      <c r="P1019" t="inlineStr"/>
+      <c r="Q1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>290</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>290.1000061035156</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>19732</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1020" t="inlineStr"/>
+      <c r="O1020" t="inlineStr"/>
+      <c r="P1020" t="inlineStr"/>
+      <c r="Q1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>275.6000061035156</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>281.6499938964844</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>27740</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1021" t="inlineStr"/>
+      <c r="O1021" t="inlineStr"/>
+      <c r="P1021" t="inlineStr"/>
+      <c r="Q1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>284.8500061035156</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>284.8500061035156</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>267.6000061035156</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>273.7000122070312</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>38743</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1022" t="inlineStr"/>
+      <c r="O1022" t="inlineStr"/>
+      <c r="P1022" t="inlineStr"/>
+      <c r="Q1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>273.5499877929688</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>273.5499877929688</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>260.0499877929688</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>268.0499877929688</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>14295</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1023" t="inlineStr"/>
+      <c r="O1023" t="inlineStr"/>
+      <c r="P1023" t="inlineStr"/>
+      <c r="Q1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>260.5499877929688</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>273</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>257.0499877929688</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>269.8999938964844</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>20331</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1024" t="inlineStr"/>
+      <c r="O1024" t="inlineStr"/>
+      <c r="P1024" t="inlineStr"/>
+      <c r="Q1024" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
